--- a/pi_darts/Results.xlsx
+++ b/pi_darts/Results.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdqc\source\java\parallel\pi_darts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB1B1D6-44ED-4593-B131-A019D203AA94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="404"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions 1-4" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>Work Group</t>
   </si>
@@ -92,16 +98,20 @@
   </si>
   <si>
     <t>Question 2: Over what range of tasks is your time/dart roughly constant?</t>
+  </si>
+  <si>
+    <t>256-2048</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -140,6 +150,12 @@
     <font>
       <sz val="14"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -180,7 +196,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -202,6 +218,10 @@
       <alignment horizontal="left" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -218,12 +238,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -259,7 +282,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -281,34 +303,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -317,42 +339,47 @@
             <c:numRef>
               <c:f>'Questions 1-4'!$G$8:$G$17</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>0.15544939999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>7.5842800000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>3.9492400000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>2.1439400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>1.2001600000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
+                  <c:v>9.9443999999999991E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>9.909600000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0</c:v>
+                  <c:v>9.9346E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0</c:v>
+                  <c:v>1.1906399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0</c:v>
+                  <c:v>1.5655800000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD95-4E82-87E8-9F5DB6C44393}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -362,7 +389,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2106916280"/>
         <c:axId val="2106922792"/>
@@ -397,7 +423,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -432,11 +457,13 @@
         <c:axId val="2106922792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.18000000000000002"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -508,7 +535,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1034" name="Chart 6"/>
+        <xdr:cNvPr id="1034" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -875,25 +908,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="17">
+    <row r="1" spans="1:15" s="9" customFormat="1" ht="18">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
@@ -903,21 +936,21 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="B4" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -925,7 +958,7 @@
         <v>25600</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -936,7 +969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:15" ht="14.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -961,290 +994,297 @@
       <c r="H7" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="13">
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" ht="14.25">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="5">
-        <v>6000000</v>
-      </c>
-      <c r="C8" s="5">
-        <v>6000000</v>
-      </c>
-      <c r="D8" s="5">
-        <v>6000000</v>
-      </c>
-      <c r="E8" s="5">
-        <v>6000000</v>
-      </c>
-      <c r="F8" s="5">
-        <v>6000000</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="B8" s="13">
+        <v>155676</v>
+      </c>
+      <c r="C8" s="13">
+        <v>155613</v>
+      </c>
+      <c r="D8" s="13">
+        <v>155181</v>
+      </c>
+      <c r="E8" s="13">
+        <v>155091</v>
+      </c>
+      <c r="F8" s="13">
+        <v>155686</v>
+      </c>
+      <c r="G8" s="14">
         <f t="shared" ref="G8:G16" si="0">AVERAGE(B8:F8)/1000000</f>
-        <v>6</v>
-      </c>
-      <c r="H8" s="3">
+        <v>0.15544939999999999</v>
+      </c>
+      <c r="H8" s="14">
         <f>STDEV(B8:F8)/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="13">
+        <v>2.8921497194993209E-4</v>
+      </c>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.25">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="5">
-        <v>5000000</v>
-      </c>
-      <c r="C9" s="5">
-        <v>5000000</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5000000</v>
-      </c>
-      <c r="E9" s="5">
-        <v>5000000</v>
-      </c>
-      <c r="F9" s="5">
-        <v>5000000</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="B9" s="13">
+        <v>76427</v>
+      </c>
+      <c r="C9" s="13">
+        <v>67205</v>
+      </c>
+      <c r="D9" s="13">
+        <v>78574</v>
+      </c>
+      <c r="E9" s="13">
+        <v>78488</v>
+      </c>
+      <c r="F9" s="13">
+        <v>78520</v>
+      </c>
+      <c r="G9" s="14">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
+        <v>7.5842800000000002E-2</v>
+      </c>
+      <c r="H9" s="14">
         <f t="shared" ref="H9:H16" si="1">STDEV(B9:F9)/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="13">
+        <v>4.9136751724142289E-3</v>
+      </c>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C10" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D10" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F10" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="B10" s="13">
+        <v>39545</v>
+      </c>
+      <c r="C10" s="13">
+        <v>39414</v>
+      </c>
+      <c r="D10" s="13">
+        <v>39409</v>
+      </c>
+      <c r="E10" s="13">
+        <v>39564</v>
+      </c>
+      <c r="F10" s="13">
+        <v>39530</v>
+      </c>
+      <c r="G10" s="14">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
+        <v>3.9492400000000004E-2</v>
+      </c>
+      <c r="H10" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="13">
+        <v>7.4848513679297597E-5</v>
+      </c>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" ht="14.25">
       <c r="A11">
         <v>16</v>
       </c>
-      <c r="B11" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C11" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F11" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="B11" s="13">
+        <v>22260</v>
+      </c>
+      <c r="C11" s="13">
+        <v>21586</v>
+      </c>
+      <c r="D11" s="13">
+        <v>21589</v>
+      </c>
+      <c r="E11" s="13">
+        <v>20168</v>
+      </c>
+      <c r="F11" s="13">
+        <v>21594</v>
+      </c>
+      <c r="G11" s="14">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H11" s="3">
+        <v>2.1439400000000001E-2</v>
+      </c>
+      <c r="H11" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="13">
+        <v>7.677263835508065E-4</v>
+      </c>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.25">
       <c r="A12">
         <v>32</v>
       </c>
-      <c r="B12" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C12" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D12" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F12" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="B12" s="13">
+        <v>11986</v>
+      </c>
+      <c r="C12" s="13">
+        <v>11966</v>
+      </c>
+      <c r="D12" s="13">
+        <v>12130</v>
+      </c>
+      <c r="E12" s="13">
+        <v>11965</v>
+      </c>
+      <c r="F12" s="13">
+        <v>11961</v>
+      </c>
+      <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
+        <v>1.2001600000000001E-2</v>
+      </c>
+      <c r="H12" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="13">
+        <v>7.2431346805095368E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.25">
       <c r="A13" s="1">
         <v>64</v>
       </c>
-      <c r="B13" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C13" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D13" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E13" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F13" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="B13" s="13">
+        <v>9946</v>
+      </c>
+      <c r="C13" s="13">
+        <v>9905</v>
+      </c>
+      <c r="D13" s="13">
+        <v>9904</v>
+      </c>
+      <c r="E13" s="13">
+        <v>10055</v>
+      </c>
+      <c r="F13" s="13">
+        <v>9912</v>
+      </c>
+      <c r="G13" s="14">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H13" s="3">
+        <v>9.9443999999999991E-3</v>
+      </c>
+      <c r="H13" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="13">
+        <v>6.4166190474423528E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.25">
       <c r="A14">
         <f>A13*2</f>
         <v>128</v>
       </c>
-      <c r="B14" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C14" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D14" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F14" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="B14" s="13">
+        <v>9906</v>
+      </c>
+      <c r="C14" s="13">
+        <v>9902</v>
+      </c>
+      <c r="D14" s="13">
+        <v>9928</v>
+      </c>
+      <c r="E14" s="13">
+        <v>9915</v>
+      </c>
+      <c r="F14" s="13">
+        <v>9897</v>
+      </c>
+      <c r="G14" s="14">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
+        <v>9.909600000000001E-3</v>
+      </c>
+      <c r="H14" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="13">
+        <v>1.2218837915284743E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14.25">
       <c r="A15">
         <f>A14*2</f>
         <v>256</v>
       </c>
-      <c r="B15" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C15" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D15" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E15" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F15" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="B15" s="13">
+        <v>9933</v>
+      </c>
+      <c r="C15" s="13">
+        <v>9933</v>
+      </c>
+      <c r="D15" s="13">
+        <v>9937</v>
+      </c>
+      <c r="E15" s="13">
+        <v>9942</v>
+      </c>
+      <c r="F15" s="13">
+        <v>9928</v>
+      </c>
+      <c r="G15" s="14">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
+        <v>9.9346E-3</v>
+      </c>
+      <c r="H15" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="13">
-      <c r="A16" s="11">
+        <v>5.2249401910452523E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.25">
+      <c r="A16">
+        <f t="shared" ref="A16:A17" si="2">A15*2</f>
         <v>512</v>
       </c>
-      <c r="B16" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C16" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D16" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E16" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F16" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="B16" s="13">
+        <v>11841</v>
+      </c>
+      <c r="C16" s="13">
+        <v>11853</v>
+      </c>
+      <c r="D16" s="13">
+        <v>11895</v>
+      </c>
+      <c r="E16" s="13">
+        <v>11963</v>
+      </c>
+      <c r="F16" s="13">
+        <v>11980</v>
+      </c>
+      <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H16" s="3">
+        <v>1.1906399999999999E-2</v>
+      </c>
+      <c r="H16" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="13">
+        <v>6.3006348886441587E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.25">
       <c r="A17">
+        <f t="shared" si="2"/>
         <v>1024</v>
       </c>
-      <c r="B17" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C17" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D17" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E17" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F17" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" ref="G17" si="2">AVERAGE(B17:F17)/1000000</f>
-        <v>4</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" ref="H17" si="3">STDEV(B17:F17)/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="13">
+      <c r="B17" s="13">
+        <v>15615</v>
+      </c>
+      <c r="C17" s="13">
+        <v>15619</v>
+      </c>
+      <c r="D17" s="13">
+        <v>15645</v>
+      </c>
+      <c r="E17" s="13">
+        <v>15782</v>
+      </c>
+      <c r="F17" s="13">
+        <v>15618</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" ref="G17" si="3">AVERAGE(B17:F17)/1000000</f>
+        <v>1.5655800000000001E-2</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" ref="H17" si="4">STDEV(B17:F17)/1000000</f>
+        <v>7.1573039616883681E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1252,18 +1292,18 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>17</v>
@@ -1272,20 +1312,20 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="2">
         <f>B4</f>
-        <v>???</v>
+        <v>128</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1297,7 +1337,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:14" ht="14.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1326,264 +1366,279 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" ht="13">
+      <c r="N23" s="13">
+        <v>12822</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="14.25">
       <c r="A24">
         <v>256</v>
       </c>
-      <c r="B24" s="5">
-        <v>6000000</v>
-      </c>
-      <c r="C24" s="5">
-        <v>6000000</v>
-      </c>
-      <c r="D24" s="5">
-        <v>6000000</v>
-      </c>
-      <c r="E24" s="5">
-        <v>6000000</v>
-      </c>
-      <c r="F24" s="5">
-        <v>6000000</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" ref="G24:G31" si="4">AVERAGE(B24:F24)/1000000</f>
-        <v>6</v>
-      </c>
-      <c r="H24" s="3">
-        <f t="shared" ref="H24:H31" si="5">STDEV(B24:F24)/1000000</f>
-        <v>0</v>
+      <c r="B24" s="13">
+        <v>3013</v>
+      </c>
+      <c r="C24" s="13">
+        <v>2995</v>
+      </c>
+      <c r="D24" s="13">
+        <v>3059</v>
+      </c>
+      <c r="E24" s="13">
+        <v>2988</v>
+      </c>
+      <c r="F24" s="13">
+        <v>2994</v>
+      </c>
+      <c r="G24" s="14">
+        <f t="shared" ref="G24:G31" si="5">AVERAGE(B24:F24)/1000000</f>
+        <v>3.0098E-3</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" ref="H24:H31" si="6">STDEV(B24:F24)/1000000</f>
+        <v>2.9046514420838866E-5</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" ht="13">
+      <c r="N24" s="13">
+        <v>12812</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14.25">
       <c r="A25">
         <f>256*2</f>
         <v>512</v>
       </c>
-      <c r="B25" s="5">
-        <v>5000000</v>
-      </c>
-      <c r="C25" s="5">
-        <v>5000000</v>
-      </c>
-      <c r="D25" s="5">
-        <v>5000000</v>
-      </c>
-      <c r="E25" s="5">
-        <v>5000000</v>
-      </c>
-      <c r="F25" s="5">
-        <v>5000000</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="B25" s="13">
+        <v>3022</v>
+      </c>
+      <c r="C25" s="13">
+        <v>3037</v>
+      </c>
+      <c r="D25" s="13">
+        <v>3009</v>
+      </c>
+      <c r="E25" s="13">
+        <v>3002</v>
+      </c>
+      <c r="F25" s="13">
+        <v>3064</v>
+      </c>
+      <c r="G25" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.0268000000000001E-3</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" si="6"/>
+        <v>2.4712345093090619E-5</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" ht="13">
+      <c r="N25" s="13">
+        <v>12838</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="14.25">
       <c r="A26">
-        <f t="shared" ref="A26:A31" si="6">A25*2</f>
+        <f t="shared" ref="A26:A31" si="7">A25*2</f>
         <v>1024</v>
       </c>
-      <c r="B26" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C26" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D26" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E26" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F26" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="B26" s="13">
+        <v>3011</v>
+      </c>
+      <c r="C26" s="13">
+        <v>3012</v>
+      </c>
+      <c r="D26" s="13">
+        <v>3014</v>
+      </c>
+      <c r="E26" s="13">
+        <v>3043</v>
+      </c>
+      <c r="F26" s="13">
+        <v>3102</v>
+      </c>
+      <c r="G26" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.0364000000000003E-3</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" si="6"/>
+        <v>3.9016663106934197E-5</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" ht="13">
+      <c r="N26" s="13">
+        <v>12822</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.25">
       <c r="A27">
+        <f t="shared" si="7"/>
+        <v>2048</v>
+      </c>
+      <c r="B27" s="13">
+        <v>3060</v>
+      </c>
+      <c r="C27" s="13">
+        <v>3006</v>
+      </c>
+      <c r="D27" s="13">
+        <v>3047</v>
+      </c>
+      <c r="E27" s="13">
+        <v>3018</v>
+      </c>
+      <c r="F27" s="13">
+        <v>3010</v>
+      </c>
+      <c r="G27" s="14">
+        <f t="shared" si="5"/>
+        <v>3.0282E-3</v>
+      </c>
+      <c r="H27" s="14">
         <f t="shared" si="6"/>
-        <v>2048</v>
-      </c>
-      <c r="B27" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C27" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D27" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E27" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F27" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H27" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.394159560263267E-5</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" ht="13">
+      <c r="N27" s="13">
+        <v>13571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.25">
       <c r="A28">
+        <f t="shared" si="7"/>
+        <v>4096</v>
+      </c>
+      <c r="B28" s="13">
+        <v>3223</v>
+      </c>
+      <c r="C28" s="13">
+        <v>3237</v>
+      </c>
+      <c r="D28" s="13">
+        <v>3236</v>
+      </c>
+      <c r="E28" s="13">
+        <v>3226</v>
+      </c>
+      <c r="F28" s="13">
+        <v>3243</v>
+      </c>
+      <c r="G28" s="14">
+        <f t="shared" si="5"/>
+        <v>3.2330000000000002E-3</v>
+      </c>
+      <c r="H28" s="14">
         <f t="shared" si="6"/>
-        <v>4096</v>
-      </c>
-      <c r="B28" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C28" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D28" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E28" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F28" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H28" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.2764726786234235E-6</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="13">
+    <row r="29" spans="1:14" ht="14.25">
       <c r="A29">
+        <f t="shared" si="7"/>
+        <v>8192</v>
+      </c>
+      <c r="B29" s="13">
+        <v>4316</v>
+      </c>
+      <c r="C29" s="13">
+        <v>4294</v>
+      </c>
+      <c r="D29" s="13">
+        <v>4412</v>
+      </c>
+      <c r="E29" s="13">
+        <v>4273</v>
+      </c>
+      <c r="F29" s="13">
+        <v>4269</v>
+      </c>
+      <c r="G29" s="14">
+        <f t="shared" si="5"/>
+        <v>4.3128000000000003E-3</v>
+      </c>
+      <c r="H29" s="14">
         <f t="shared" si="6"/>
-        <v>8192</v>
-      </c>
-      <c r="B29" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C29" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D29" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E29" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F29" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H29" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.8538021831968322E-5</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="13">
+    <row r="30" spans="1:14" ht="14.25">
       <c r="A30">
+        <f t="shared" si="7"/>
+        <v>16384</v>
+      </c>
+      <c r="B30" s="13">
+        <v>6979</v>
+      </c>
+      <c r="C30" s="13">
+        <v>6975</v>
+      </c>
+      <c r="D30" s="13">
+        <v>6973</v>
+      </c>
+      <c r="E30" s="13">
+        <v>6963</v>
+      </c>
+      <c r="F30" s="13">
+        <v>6977</v>
+      </c>
+      <c r="G30" s="14">
+        <f t="shared" si="5"/>
+        <v>6.9733999999999994E-3</v>
+      </c>
+      <c r="H30" s="14">
         <f t="shared" si="6"/>
-        <v>16384</v>
-      </c>
-      <c r="B30" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C30" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D30" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E30" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F30" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.2289646009589755E-6</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" ht="13">
+    <row r="31" spans="1:14" ht="14.25">
       <c r="A31">
+        <f t="shared" si="7"/>
+        <v>32768</v>
+      </c>
+      <c r="B31" s="13">
+        <v>12822</v>
+      </c>
+      <c r="C31" s="13">
+        <v>12812</v>
+      </c>
+      <c r="D31" s="13">
+        <v>12838</v>
+      </c>
+      <c r="E31" s="13">
+        <v>12822</v>
+      </c>
+      <c r="F31" s="13">
+        <v>13571</v>
+      </c>
+      <c r="G31" s="14">
+        <f t="shared" si="5"/>
+        <v>1.2973E-2</v>
+      </c>
+      <c r="H31" s="14">
         <f t="shared" si="6"/>
-        <v>32768</v>
-      </c>
-      <c r="B31" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C31" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D31" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E31" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F31" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.3442188923573767E-4</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -1617,9 +1672,9 @@
       <c r="A35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="6" t="str">
+      <c r="B35" s="6">
         <f>B4</f>
-        <v>???</v>
+        <v>128</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -1668,7 +1723,7 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12" ht="13">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>256</v>
       </c>
@@ -1688,11 +1743,11 @@
         <v>6000000</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" ref="G38:G45" si="7">AVERAGE(B38:F38)/1000000</f>
+        <f t="shared" ref="G38:G45" si="8">AVERAGE(B38:F38)/1000000</f>
         <v>6</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" ref="H38:H45" si="8">STDEV(B38:F38)/1000000</f>
+        <f t="shared" ref="H38:H45" si="9">STDEV(B38:F38)/1000000</f>
         <v>0</v>
       </c>
       <c r="I38" s="7"/>
@@ -1700,7 +1755,7 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="1:12" ht="13">
+    <row r="39" spans="1:12">
       <c r="A39">
         <f>256*2</f>
         <v>512</v>
@@ -1721,11 +1776,11 @@
         <v>5000000</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I39" s="7"/>
@@ -1733,9 +1788,9 @@
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12" ht="13">
+    <row r="40" spans="1:12">
       <c r="A40">
-        <f t="shared" ref="A40:A45" si="9">A39*2</f>
+        <f t="shared" ref="A40:A45" si="10">A39*2</f>
         <v>1024</v>
       </c>
       <c r="B40" s="5">
@@ -1754,11 +1809,11 @@
         <v>4000000</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I40" s="7"/>
@@ -1766,32 +1821,32 @@
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" spans="1:12" ht="13">
+    <row r="41" spans="1:12">
       <c r="A41">
+        <f t="shared" si="10"/>
+        <v>2048</v>
+      </c>
+      <c r="B41" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="C41" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="E41" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="F41" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="H41" s="3">
         <f t="shared" si="9"/>
-        <v>2048</v>
-      </c>
-      <c r="B41" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C41" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D41" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E41" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F41" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="H41" s="3">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I41" s="7"/>
@@ -1799,32 +1854,32 @@
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="1:12" ht="13">
+    <row r="42" spans="1:12">
       <c r="A42">
+        <f t="shared" si="10"/>
+        <v>4096</v>
+      </c>
+      <c r="B42" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="C42" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="D42" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="E42" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="F42" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="H42" s="3">
         <f t="shared" si="9"/>
-        <v>4096</v>
-      </c>
-      <c r="B42" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C42" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D42" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E42" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F42" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="H42" s="3">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I42" s="7"/>
@@ -1832,32 +1887,32 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:12" ht="13">
+    <row r="43" spans="1:12">
       <c r="A43">
+        <f t="shared" si="10"/>
+        <v>8192</v>
+      </c>
+      <c r="B43" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="C43" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="D43" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="E43" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="F43" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
         <f t="shared" si="9"/>
-        <v>8192</v>
-      </c>
-      <c r="B43" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C43" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D43" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E43" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F43" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I43" s="7"/>
@@ -1865,32 +1920,32 @@
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:12" ht="13">
+    <row r="44" spans="1:12">
       <c r="A44">
+        <f t="shared" si="10"/>
+        <v>16384</v>
+      </c>
+      <c r="B44" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="C44" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="D44" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="E44" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="F44" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="H44" s="3">
         <f t="shared" si="9"/>
-        <v>16384</v>
-      </c>
-      <c r="B44" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C44" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D44" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E44" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F44" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="H44" s="3">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I44" s="7"/>
@@ -1898,32 +1953,32 @@
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" spans="1:12" ht="13">
+    <row r="45" spans="1:12">
       <c r="A45">
+        <f t="shared" si="10"/>
+        <v>32768</v>
+      </c>
+      <c r="B45" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="C45" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="D45" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="E45" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="F45" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
         <f t="shared" si="9"/>
-        <v>32768</v>
-      </c>
-      <c r="B45" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C45" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D45" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E45" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F45" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I45" s="7"/>
@@ -1958,9 +2013,9 @@
       <c r="A52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="6" t="str">
+      <c r="B52" s="6">
         <f>B4</f>
-        <v>???</v>
+        <v>128</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -2009,7 +2064,7 @@
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" spans="1:12" ht="13">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>256</v>
       </c>
@@ -2029,11 +2084,11 @@
         <v>6000000</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" ref="G55:G62" si="10">AVERAGE(B55:F55)/1000000</f>
+        <f t="shared" ref="G55:G62" si="11">AVERAGE(B55:F55)/1000000</f>
         <v>6</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" ref="H55:H62" si="11">STDEV(B55:F55)/1000000</f>
+        <f t="shared" ref="H55:H62" si="12">STDEV(B55:F55)/1000000</f>
         <v>0</v>
       </c>
       <c r="I55" s="7"/>
@@ -2041,7 +2096,7 @@
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
     </row>
-    <row r="56" spans="1:12" ht="13">
+    <row r="56" spans="1:12">
       <c r="A56">
         <f>256*2</f>
         <v>512</v>
@@ -2062,11 +2117,11 @@
         <v>5000000</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I56" s="7"/>
@@ -2074,9 +2129,9 @@
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
     </row>
-    <row r="57" spans="1:12" ht="13">
+    <row r="57" spans="1:12">
       <c r="A57">
-        <f t="shared" ref="A57:A62" si="12">A56*2</f>
+        <f t="shared" ref="A57:A62" si="13">A56*2</f>
         <v>1024</v>
       </c>
       <c r="B57" s="5">
@@ -2095,11 +2150,11 @@
         <v>4000000</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I57" s="7"/>
@@ -2107,32 +2162,32 @@
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
     </row>
-    <row r="58" spans="1:12" ht="13">
+    <row r="58" spans="1:12">
       <c r="A58">
+        <f t="shared" si="13"/>
+        <v>2048</v>
+      </c>
+      <c r="B58" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="C58" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="D58" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="E58" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="F58" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
         <f t="shared" si="12"/>
-        <v>2048</v>
-      </c>
-      <c r="B58" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C58" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D58" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E58" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F58" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G58" s="3">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="H58" s="3">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I58" s="7"/>
@@ -2140,32 +2195,32 @@
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" spans="1:12" ht="13">
+    <row r="59" spans="1:12">
       <c r="A59">
+        <f t="shared" si="13"/>
+        <v>4096</v>
+      </c>
+      <c r="B59" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="C59" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="D59" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="E59" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="F59" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
         <f t="shared" si="12"/>
-        <v>4096</v>
-      </c>
-      <c r="B59" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C59" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D59" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E59" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F59" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G59" s="3">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I59" s="7"/>
@@ -2173,32 +2228,32 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" spans="1:12" ht="13">
+    <row r="60" spans="1:12">
       <c r="A60">
+        <f t="shared" si="13"/>
+        <v>8192</v>
+      </c>
+      <c r="B60" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="C60" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="D60" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="E60" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="F60" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="H60" s="3">
         <f t="shared" si="12"/>
-        <v>8192</v>
-      </c>
-      <c r="B60" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C60" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D60" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E60" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F60" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G60" s="3">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="H60" s="3">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I60" s="7"/>
@@ -2206,32 +2261,32 @@
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" spans="1:12" ht="13">
+    <row r="61" spans="1:12">
       <c r="A61">
+        <f t="shared" si="13"/>
+        <v>16384</v>
+      </c>
+      <c r="B61" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="C61" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="D61" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="E61" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="F61" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="H61" s="3">
         <f t="shared" si="12"/>
-        <v>16384</v>
-      </c>
-      <c r="B61" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C61" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D61" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E61" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F61" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G61" s="3">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="H61" s="3">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I61" s="7"/>
@@ -2239,32 +2294,32 @@
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" spans="1:12" ht="13">
+    <row r="62" spans="1:12">
       <c r="A62">
+        <f t="shared" si="13"/>
+        <v>32768</v>
+      </c>
+      <c r="B62" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="C62" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="D62" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="E62" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="F62" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="H62" s="3">
         <f t="shared" si="12"/>
-        <v>32768</v>
-      </c>
-      <c r="B62" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="C62" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D62" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="E62" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="F62" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="G62" s="3">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="H62" s="3">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I62" s="7"/>
@@ -2275,12 +2330,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2290,12 +2345,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/pi_darts/Results.xlsx
+++ b/pi_darts/Results.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\java\parallel\pi_darts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3679C032-7039-43AA-8FDA-0932479A9578}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Questions 1-4" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Questions 1-4" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="179017" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,94 +26,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
-    <t xml:space="preserve">Name:</t>
+    <t>Name:</t>
   </si>
   <si>
-    <t xml:space="preserve">(Note: fill in all the grey cells with your measurements and answers)</t>
+    <t>(Note: fill in all the grey cells with your measurements and answers)</t>
   </si>
   <si>
-    <t xml:space="preserve">Question 1: What is the optimal workgroup size?</t>
+    <t>Question 1: What is the optimal workgroup size?</t>
   </si>
   <si>
-    <t xml:space="preserve">Answer:</t>
+    <t>Answer:</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Tasks:</t>
+    <t>Total Tasks:</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeats/task:</t>
+    <t>Repeats/task:</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Work Group</t>
+    <t>Work Group</t>
   </si>
   <si>
-    <t xml:space="preserve">Run 1</t>
+    <t>Run 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Run 2</t>
+    <t>Run 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Run 3</t>
+    <t>Run 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Run 4</t>
+    <t>Run 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Run 5</t>
+    <t>Run 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Average (secs)</t>
+    <t>Average (secs)</t>
   </si>
   <si>
-    <t xml:space="preserve">StdDev</t>
+    <t>StdDev</t>
   </si>
   <si>
-    <t xml:space="preserve">Question 2: Over what range of tasks is your time/dart roughly constant?</t>
+    <t>Question 2: Over what range of tasks is your time/dart roughly constant?</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;8192</t>
+    <t>&gt;8192</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO: add a graph here to show your results.</t>
+    <t>TODO: add a graph here to show your results.</t>
   </si>
   <si>
-    <t xml:space="preserve">workgroup size:</t>
+    <t>workgroup size:</t>
   </si>
   <si>
-    <t xml:space="preserve">repeats/task:</t>
+    <t>repeats/task:</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasks</t>
+    <t>Tasks</t>
   </si>
   <si>
-    <t xml:space="preserve">Question 3: Are ints faster than floats?  What speedup do they give?</t>
+    <t>Question 3: Are ints faster than floats?  What speedup do they give?</t>
   </si>
   <si>
-    <t xml:space="preserve">???</t>
+    <t>???</t>
   </si>
   <si>
-    <t xml:space="preserve">times faster</t>
+    <t>times faster</t>
   </si>
   <si>
-    <t xml:space="preserve">Optional Question 4: Are doubles faster than floats? How much speedup do they give?</t>
+    <t>Optional Question 4: Are doubles faster than floats? How much speedup do they give?</t>
+  </si>
+  <si>
+    <t>X times faster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.00000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -116,22 +123,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -144,7 +136,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -161,28 +153,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Monospace"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -206,7 +177,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -214,105 +185,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="9"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -371,15 +282,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -388,13 +317,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -402,13 +331,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -423,18 +352,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="be4b48"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="be4b48"/>
+                <a:srgbClr val="BE4B48"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -443,18 +371,32 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Questions 1-4'!$A$8:$A$17</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
@@ -486,50 +428,63 @@
                 <c:pt idx="9">
                   <c:v>1024</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Questions 1-4'!$G$8:$G$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5190142</c:v>
+                  <c:v>0.51901419999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2511494</c:v>
+                  <c:v>0.25114939999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1260894</c:v>
+                  <c:v>0.12608939999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0650556</c:v>
+                  <c:v>6.5055600000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0340206</c:v>
+                  <c:v>3.4020599999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0339206</c:v>
+                  <c:v>3.3920599999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0334892</c:v>
+                  <c:v>3.3489199999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0381362</c:v>
+                  <c:v>3.8136199999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0464802</c:v>
+                  <c:v>4.6480199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0507648</c:v>
+                  <c:v>5.0764800000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C07A-4F50-9949-0798183A72F2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -537,7 +492,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
+        <c:smooth val="0"/>
         <c:axId val="18611150"/>
         <c:axId val="17522988"/>
       </c:lineChart>
@@ -552,7 +507,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -561,7 +516,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="dddddd"/>
+                <a:srgbClr val="DDDDDD"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -573,13 +528,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
@@ -587,13 +542,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
@@ -620,21 +575,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
                 <a:ea typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17522988"/>
@@ -642,6 +599,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="17522988"/>
@@ -676,21 +634,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
                 <a:ea typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="18611150"/>
@@ -699,7 +659,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -708,22 +668,37 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -732,13 +707,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -746,19 +721,64 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
                 <a:ea typeface="Calibri"/>
               </a:rPr>
-              <a:t>Size of Work Group vs. Time Taken To Run (seconds)</a:t>
+              <a:t>Number of Tasks </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+              </a:rPr>
+              <a:t>vs. Time Taken To Run per Dart (seconds)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+              </a:rPr>
+              <a:t>using float</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -767,18 +787,104 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="BE4B48"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Questions 1-4'!$A$24:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Questions 1-4'!$G$24:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5183593749999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5980468749999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0363281250000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2885742187500001E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8793457031250001E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7103027343749998E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7583618164062501E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7320861816406251E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DF4F-4B34-AB7F-FE69F5F96F50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="be4b48"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="be4b48"/>
+                <a:srgbClr val="BE4B48"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -787,18 +893,32 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Questions 1-4'!$A$24:$A$31</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>256</c:v>
@@ -824,44 +944,57 @@
                 <c:pt idx="7">
                   <c:v>32768</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Questions 1-4'!$G$24:$G$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.518359375E-005</c:v>
+                  <c:v>1.5183593749999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.598046875E-006</c:v>
+                  <c:v>7.5980468749999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.036328125E-006</c:v>
+                  <c:v>4.0363281250000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.28857421875E-006</c:v>
+                  <c:v>2.2885742187500001E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.879345703125E-006</c:v>
+                  <c:v>1.8793457031250001E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.710302734375E-006</c:v>
+                  <c:v>1.7103027343749998E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.75836181640625E-006</c:v>
+                  <c:v>1.7583618164062501E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.73208618164063E-006</c:v>
+                  <c:v>1.7320861816406251E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DF4F-4B34-AB7F-FE69F5F96F50}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -869,7 +1002,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
+        <c:smooth val="0"/>
         <c:axId val="79448189"/>
         <c:axId val="54307661"/>
       </c:lineChart>
@@ -884,7 +1017,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -893,7 +1026,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="dddddd"/>
+                <a:srgbClr val="DDDDDD"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -905,13 +1038,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
@@ -919,13 +1052,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
@@ -952,21 +1085,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
                 <a:ea typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="54307661"/>
@@ -974,12 +1109,12 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="54307661"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -993,7 +1128,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00000" sourceLinked="0"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1007,21 +1142,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
                 <a:ea typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="79448189"/>
@@ -1030,7 +1167,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1039,41 +1176,423 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Number of Tasks vs. Time Taken To Run per Dart (seconds) using int</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="BE4B48"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Questions 1-4'!$A$38:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Questions 1-4'!$G$38:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.261328125E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3085937499999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3662109375E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.95634765625E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6445800781249999E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.481494140625E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4850219726562498E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4770141601562502E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DF4F-4B34-AB7F-FE69F5F96F50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="79448189"/>
+        <c:axId val="54307661"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="79448189"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="DDDDDD"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Number of Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54307661"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="54307661"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79448189"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>624960</xdr:colOff>
+      <xdr:colOff>320160</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>149760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>648360</xdr:colOff>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>79080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 6"/>
+        <xdr:cNvPr id="2" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6749280" y="378360"/>
-        <a:ext cx="3976200" cy="2520000"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1086,24 +1605,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>580680</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:colOff>237780</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 6"/>
+        <xdr:cNvPr id="3" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6705000" y="2962080"/>
-        <a:ext cx="3903120" cy="2161800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1113,33 +1638,360 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247305</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D6CBF1-4B1C-4174-9DE3-42D741E5E0B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P43" activeCellId="0" sqref="P43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.2040816326531"/>
+    <col min="1" max="1" width="15.85546875"/>
+    <col min="2" max="2" width="10.28515625"/>
+    <col min="3" max="4" width="9.28515625"/>
+    <col min="6" max="6" width="9.7109375"/>
+    <col min="7" max="7" width="13.28515625" style="1"/>
+    <col min="8" max="8" width="10" style="1"/>
+    <col min="9" max="1025" width="11.140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1149,68 +2001,68 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:15">
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="6">
         <v>128</v>
       </c>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="7">
         <v>25600</v>
       </c>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="7">
         <v>100000</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1221,376 +2073,374 @@
       </c>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:15" ht="14.25">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="15">
         <v>574019</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="15">
         <v>501257</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="15">
         <v>501089</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="15">
         <v>515655</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="15">
         <v>503051</v>
       </c>
-      <c r="G8" s="9" t="n">
-        <f aca="false">AVERAGE(B8:F8)/1000000</f>
-        <v>0.5190142</v>
-      </c>
-      <c r="H8" s="9" t="n">
-        <f aca="false">STDEV(B8:F8)/1000000</f>
-        <v>0.0313379440487087</v>
+      <c r="G8" s="9">
+        <f t="shared" ref="G8:G17" si="0">AVERAGE(B8:F8)/1000000</f>
+        <v>0.51901419999999998</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" ref="H8:H17" si="1">STDEV(B8:F8)/1000000</f>
+        <v>3.1337944048708745E-2</v>
       </c>
       <c r="O8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:15" ht="14.25">
+      <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="15">
         <v>251735</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="15">
         <v>251313</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="15">
         <v>251077</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="15">
         <v>250774</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="15">
         <v>250848</v>
       </c>
-      <c r="G9" s="9" t="n">
-        <f aca="false">AVERAGE(B9:F9)/1000000</f>
-        <v>0.2511494</v>
-      </c>
-      <c r="H9" s="9" t="n">
-        <f aca="false">STDEV(B9:F9)/1000000</f>
-        <v>0.000389455132203955</v>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.25114939999999997</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="1"/>
+        <v>3.894551322039549E-4</v>
       </c>
       <c r="O9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:15" ht="14.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="15">
         <v>125981</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="15">
         <v>126702</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="15">
         <v>126295</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="15">
         <v>125676</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="15">
         <v>125793</v>
       </c>
-      <c r="G10" s="9" t="n">
-        <f aca="false">AVERAGE(B10:F10)/1000000</f>
-        <v>0.1260894</v>
-      </c>
-      <c r="H10" s="9" t="n">
-        <f aca="false">STDEV(B10:F10)/1000000</f>
-        <v>0.000414744861330433</v>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.12608939999999999</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="1"/>
+        <v>4.1474486133043285E-4</v>
       </c>
       <c r="O10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:15" ht="14.25">
+      <c r="A11">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="15">
         <v>63972</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="15">
         <v>63624</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="15">
         <v>63943</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="15">
         <v>68970</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="15">
         <v>64769</v>
       </c>
-      <c r="G11" s="9" t="n">
-        <f aca="false">AVERAGE(B11:F11)/1000000</f>
-        <v>0.0650556</v>
-      </c>
-      <c r="H11" s="9" t="n">
-        <f aca="false">STDEV(B11:F11)/1000000</f>
-        <v>0.00222857651876708</v>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
+        <v>6.5055600000000005E-2</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="1"/>
+        <v>2.2285765187670804E-3</v>
       </c>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:15" ht="14.25">
+      <c r="A12">
         <v>32</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="15">
         <v>33726</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="15">
         <v>34099</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="15">
         <v>35354</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="15">
         <v>33746</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="15">
         <v>33178</v>
       </c>
-      <c r="G12" s="9" t="n">
-        <f aca="false">AVERAGE(B12:F12)/1000000</f>
-        <v>0.0340206</v>
-      </c>
-      <c r="H12" s="9" t="n">
-        <f aca="false">STDEV(B12:F12)/1000000</f>
-        <v>0.000814903552575395</v>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
+        <v>3.4020599999999998E-2</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="1"/>
+        <v>8.1490355257539523E-4</v>
       </c>
       <c r="O12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
+    <row r="13" spans="1:15" ht="14.25">
+      <c r="A13" s="10">
         <v>64</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="15">
         <v>33587</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="15">
         <v>33588</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="15">
         <v>34657</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="15">
         <v>34560</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="15">
         <v>33211</v>
       </c>
-      <c r="G13" s="9" t="n">
-        <f aca="false">AVERAGE(B13:F13)/1000000</f>
-        <v>0.0339206</v>
-      </c>
-      <c r="H13" s="9" t="n">
-        <f aca="false">STDEV(B13:F13)/1000000</f>
-        <v>0.000647410457129015</v>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3920599999999995E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="1"/>
+        <v>6.4741045712901483E-4</v>
       </c>
       <c r="O13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <f aca="false">A13*2</f>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <f>A13*2</f>
         <v>128</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="15">
         <v>33589</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="15">
         <v>33570</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="15">
         <v>33711</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="15">
         <v>33364</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="15">
         <v>33212</v>
       </c>
-      <c r="G14" s="9" t="n">
-        <f aca="false">AVERAGE(B14:F14)/1000000</f>
-        <v>0.0334892</v>
-      </c>
-      <c r="H14" s="9" t="n">
-        <f aca="false">STDEV(B14:F14)/1000000</f>
-        <v>0.0001988710637574</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <f aca="false">A14*2</f>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3489199999999997E-2</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9887106375740036E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <f>A14*2</f>
         <v>256</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="15">
         <v>33221</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="15">
         <v>35332</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="15">
         <v>33236</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="15">
         <v>44434</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="15">
         <v>44458</v>
       </c>
-      <c r="G15" s="9" t="n">
-        <f aca="false">AVERAGE(B15:F15)/1000000</f>
-        <v>0.0381362</v>
-      </c>
-      <c r="H15" s="9" t="n">
-        <f aca="false">STDEV(B15:F15)/1000000</f>
-        <v>0.00582370433658853</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <f aca="false">A15*2</f>
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
+        <v>3.8136199999999995E-2</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="1"/>
+        <v>5.8237043365885303E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <f>A15*2</f>
         <v>512</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="15">
         <v>45712</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="15">
         <v>46879</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="15">
         <v>45708</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="15">
         <v>47042</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="15">
         <v>47060</v>
       </c>
-      <c r="G16" s="9" t="n">
-        <f aca="false">AVERAGE(B16:F16)/1000000</f>
-        <v>0.0464802</v>
-      </c>
-      <c r="H16" s="9" t="n">
-        <f aca="false">STDEV(B16:F16)/1000000</f>
-        <v>0.000706620973365495</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <f aca="false">A16*2</f>
+      <c r="G16" s="9">
+        <f t="shared" si="0"/>
+        <v>4.6480199999999999E-2</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="1"/>
+        <v>7.0662097336549523E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <f>A16*2</f>
         <v>1024</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="15">
         <v>50844</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="15">
         <v>51217</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="15">
         <v>50342</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="15">
         <v>50931</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="15">
         <v>50490</v>
       </c>
-      <c r="G17" s="9" t="n">
-        <f aca="false">AVERAGE(B17:F17)/1000000</f>
-        <v>0.0507648</v>
-      </c>
-      <c r="H17" s="9" t="n">
-        <f aca="false">STDEV(B17:F17)/1000000</f>
-        <v>0.000350946862074588</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
+        <v>5.0764800000000006E-2</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="1"/>
+        <v>3.5094686207458813E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:14">
       <c r="A21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <f aca="false">B4</f>
+      <c r="B21" s="5">
+        <f>B4</f>
         <v>128</v>
       </c>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
+      <c r="G21"/>
+      <c r="H21"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="7">
         <v>100000</v>
       </c>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
+      <c r="G22"/>
+      <c r="H22"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:14" ht="14.25">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -1605,32 +2455,32 @@
       <c r="L23" s="7"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:14" ht="14.25">
+      <c r="A24">
         <v>256</v>
       </c>
-      <c r="B24" s="8" t="n">
+      <c r="B24" s="15">
         <v>3864</v>
       </c>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="15">
         <v>3889</v>
       </c>
-      <c r="D24" s="8" t="n">
+      <c r="D24" s="15">
         <v>3880</v>
       </c>
-      <c r="E24" s="8" t="n">
+      <c r="E24" s="15">
         <v>3904</v>
       </c>
-      <c r="F24" s="8" t="n">
+      <c r="F24" s="15">
         <v>3898</v>
       </c>
-      <c r="G24" s="14" t="n">
-        <f aca="false">AVERAGE(B24:F24)/1000000/A24</f>
-        <v>1.518359375E-005</v>
-      </c>
-      <c r="H24" s="9" t="n">
-        <f aca="false">STDEV(B24:F24)/1000000</f>
-        <v>1.57480157480236E-005</v>
+      <c r="G24" s="14">
+        <f t="shared" ref="G24:G31" si="2">AVERAGE(B24:F24)/1000000/A24</f>
+        <v>1.5183593749999999E-5</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" ref="H24:H31" si="3">STDEV(B24:F24)/1000000</f>
+        <v>1.5748015748023622E-5</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1638,33 +2488,33 @@
       <c r="L24" s="7"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <f aca="false">256*2</f>
+    <row r="25" spans="1:14" ht="14.25">
+      <c r="A25">
+        <f>256*2</f>
         <v>512</v>
       </c>
-      <c r="B25" s="8" t="n">
+      <c r="B25" s="15">
         <v>3896</v>
       </c>
-      <c r="C25" s="8" t="n">
+      <c r="C25" s="15">
         <v>3898</v>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="15">
         <v>3894</v>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="E25" s="15">
         <v>3900</v>
       </c>
-      <c r="F25" s="8" t="n">
+      <c r="F25" s="15">
         <v>3863</v>
       </c>
-      <c r="G25" s="14" t="n">
-        <f aca="false">AVERAGE(B25:F25)/1000000/A25</f>
-        <v>7.598046875E-006</v>
-      </c>
-      <c r="H25" s="9" t="n">
-        <f aca="false">STDEV(B25:F25)/1000000</f>
-        <v>1.53687995627505E-005</v>
+      <c r="G25" s="14">
+        <f t="shared" si="2"/>
+        <v>7.5980468749999998E-6</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="3"/>
+        <v>1.5368799562750501E-5</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1672,33 +2522,33 @@
       <c r="L25" s="7"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <f aca="false">A25*2</f>
+    <row r="26" spans="1:14" ht="14.25">
+      <c r="A26">
+        <f t="shared" ref="A26:A31" si="4">A25*2</f>
         <v>1024</v>
       </c>
-      <c r="B26" s="8" t="n">
+      <c r="B26" s="15">
         <v>4137</v>
       </c>
-      <c r="C26" s="8" t="n">
+      <c r="C26" s="15">
         <v>4175</v>
       </c>
-      <c r="D26" s="8" t="n">
+      <c r="D26" s="15">
         <v>4105</v>
       </c>
-      <c r="E26" s="8" t="n">
+      <c r="E26" s="15">
         <v>4129</v>
       </c>
-      <c r="F26" s="8" t="n">
+      <c r="F26" s="15">
         <v>4120</v>
       </c>
-      <c r="G26" s="14" t="n">
-        <f aca="false">AVERAGE(B26:F26)/1000000/A26</f>
-        <v>4.036328125E-006</v>
-      </c>
-      <c r="H26" s="9" t="n">
-        <f aca="false">STDEV(B26:F26)/1000000</f>
-        <v>2.62144998044975E-005</v>
+      <c r="G26" s="14">
+        <f t="shared" si="2"/>
+        <v>4.0363281250000001E-6</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="3"/>
+        <v>2.6214499804497509E-5</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1706,33 +2556,33 @@
       <c r="L26" s="7"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <f aca="false">A26*2</f>
+    <row r="27" spans="1:14" ht="14.25">
+      <c r="A27">
+        <f t="shared" si="4"/>
         <v>2048</v>
       </c>
-      <c r="B27" s="8" t="n">
+      <c r="B27" s="15">
         <v>4688</v>
       </c>
-      <c r="C27" s="8" t="n">
+      <c r="C27" s="15">
         <v>4686</v>
       </c>
-      <c r="D27" s="8" t="n">
+      <c r="D27" s="15">
         <v>4674</v>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="E27" s="15">
         <v>4693</v>
       </c>
-      <c r="F27" s="8" t="n">
+      <c r="F27" s="15">
         <v>4694</v>
       </c>
-      <c r="G27" s="14" t="n">
-        <f aca="false">AVERAGE(B27:F27)/1000000/A27</f>
-        <v>2.28857421875E-006</v>
-      </c>
-      <c r="H27" s="9" t="n">
-        <f aca="false">STDEV(B27:F27)/1000000</f>
-        <v>8E-006</v>
+      <c r="G27" s="14">
+        <f t="shared" si="2"/>
+        <v>2.2885742187500001E-6</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="3"/>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -1740,221 +2590,214 @@
       <c r="L27" s="7"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <f aca="false">A27*2</f>
+    <row r="28" spans="1:14">
+      <c r="A28">
+        <f t="shared" si="4"/>
         <v>4096</v>
       </c>
-      <c r="B28" s="8" t="n">
+      <c r="B28" s="15">
         <v>7686</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="C28" s="15">
         <v>7717</v>
       </c>
-      <c r="D28" s="8" t="n">
+      <c r="D28" s="15">
         <v>7706</v>
       </c>
-      <c r="E28" s="8" t="n">
+      <c r="E28" s="15">
         <v>7690</v>
       </c>
-      <c r="F28" s="8" t="n">
+      <c r="F28" s="15">
         <v>7690</v>
       </c>
-      <c r="G28" s="14" t="n">
-        <f aca="false">AVERAGE(B28:F28)/1000000/A28</f>
-        <v>1.879345703125E-006</v>
-      </c>
-      <c r="H28" s="9" t="n">
-        <f aca="false">STDEV(B28:F28)/1000000</f>
-        <v>1.31984847615171E-005</v>
+      <c r="G28" s="14">
+        <f t="shared" si="2"/>
+        <v>1.8793457031250001E-6</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="3"/>
+        <v>1.3198484761517135E-5</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <f aca="false">A28*2</f>
+    <row r="29" spans="1:14">
+      <c r="A29">
+        <f t="shared" si="4"/>
         <v>8192</v>
       </c>
-      <c r="B29" s="8" t="n">
+      <c r="B29" s="15">
         <v>13995</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="15">
         <v>13987</v>
       </c>
-      <c r="D29" s="8" t="n">
+      <c r="D29" s="15">
         <v>13966</v>
       </c>
-      <c r="E29" s="8" t="n">
+      <c r="E29" s="15">
         <v>13979</v>
       </c>
-      <c r="F29" s="8" t="n">
+      <c r="F29" s="15">
         <v>14127</v>
       </c>
-      <c r="G29" s="14" t="n">
-        <f aca="false">AVERAGE(B29:F29)/1000000/A29</f>
-        <v>1.710302734375E-006</v>
-      </c>
-      <c r="H29" s="9" t="n">
-        <f aca="false">STDEV(B29:F29)/1000000</f>
-        <v>6.5834641337217E-005</v>
+      <c r="G29" s="14">
+        <f t="shared" si="2"/>
+        <v>1.7103027343749998E-6</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="3"/>
+        <v>6.5834641337216996E-5</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <f aca="false">A29*2</f>
+    <row r="30" spans="1:14">
+      <c r="A30">
+        <f t="shared" si="4"/>
         <v>16384</v>
       </c>
-      <c r="B30" s="8" t="n">
+      <c r="B30" s="15">
         <v>29099</v>
       </c>
-      <c r="C30" s="8" t="n">
+      <c r="C30" s="15">
         <v>29761</v>
       </c>
-      <c r="D30" s="8" t="n">
+      <c r="D30" s="15">
         <v>28007</v>
       </c>
-      <c r="E30" s="8" t="n">
+      <c r="E30" s="15">
         <v>28097</v>
       </c>
-      <c r="F30" s="8" t="n">
+      <c r="F30" s="15">
         <v>29081</v>
       </c>
-      <c r="G30" s="14" t="n">
-        <f aca="false">AVERAGE(B30:F30)/1000000/A30</f>
-        <v>1.75836181640625E-006</v>
-      </c>
-      <c r="H30" s="9" t="n">
-        <f aca="false">STDEV(B30:F30)/1000000</f>
-        <v>0.00074406585730028</v>
+      <c r="G30" s="14">
+        <f t="shared" si="2"/>
+        <v>1.7583618164062501E-6</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="3"/>
+        <v>7.4406585730027962E-4</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <f aca="false">A30*2</f>
+    <row r="31" spans="1:14">
+      <c r="A31">
+        <f t="shared" si="4"/>
         <v>32768</v>
       </c>
-      <c r="B31" s="8" t="n">
+      <c r="B31" s="15">
         <v>56864</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="15">
         <v>55687</v>
       </c>
-      <c r="D31" s="8" t="n">
+      <c r="D31" s="15">
         <v>56912</v>
       </c>
-      <c r="E31" s="8" t="n">
+      <c r="E31" s="15">
         <v>57479</v>
       </c>
-      <c r="F31" s="8" t="n">
+      <c r="F31" s="15">
         <v>56843</v>
       </c>
-      <c r="G31" s="14" t="n">
-        <f aca="false">AVERAGE(B31:F31)/1000000/A31</f>
-        <v>1.73208618164063E-006</v>
-      </c>
-      <c r="H31" s="9" t="n">
-        <f aca="false">STDEV(B31:F31)/1000000</f>
-        <v>0.000653653960440844</v>
+      <c r="G31" s="14">
+        <f t="shared" si="2"/>
+        <v>1.7320861816406251E-6</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="3"/>
+        <v>6.5365396044084363E-4</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:14">
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
-      <c r="I34" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="B34" s="16">
+        <f>SUM(G29:G31)/SUM(G43:G45)</f>
+        <v>1.170409654573725</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:12">
       <c r="A35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="6" t="n">
-        <f aca="false">B4</f>
+      <c r="B35" s="6">
+        <f>B4</f>
         <v>128</v>
       </c>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
+      <c r="G35"/>
+      <c r="H35"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="N35" s="0" t="n">
-        <v>48084</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="7" t="n">
+      <c r="B36" s="7">
         <v>100000</v>
       </c>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
+      <c r="G36"/>
+      <c r="H36"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
-      <c r="N36" s="0" t="n">
-        <v>48072</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -1967,299 +2810,290 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="N37" s="0" t="n">
-        <v>48087</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
         <v>256</v>
       </c>
-      <c r="B38" s="15" t="n">
+      <c r="B38" s="15">
         <v>3272</v>
       </c>
-      <c r="C38" s="15" t="n">
+      <c r="C38" s="15">
         <v>3207</v>
       </c>
-      <c r="D38" s="15" t="n">
+      <c r="D38" s="15">
         <v>3240</v>
       </c>
-      <c r="E38" s="15" t="n">
+      <c r="E38" s="15">
         <v>3220</v>
       </c>
-      <c r="F38" s="15" t="n">
+      <c r="F38" s="15">
         <v>3206</v>
       </c>
-      <c r="G38" s="14" t="n">
-        <f aca="false">AVERAGE(B38:F38)/1000000/A38</f>
-        <v>1.261328125E-005</v>
-      </c>
-      <c r="H38" s="9" t="n">
-        <f aca="false">STDEV(B38:F38)/1000000</f>
-        <v>2.76767050061961E-005</v>
+      <c r="G38" s="14">
+        <f t="shared" ref="G38:G45" si="5">AVERAGE(B38:F38)/1000000/A38</f>
+        <v>1.261328125E-5</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" ref="H38:H45" si="6">STDEV(B38:F38)/1000000</f>
+        <v>2.7676705006196096E-5</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
-      <c r="N38" s="0" t="n">
-        <v>48063</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <f aca="false">256*2</f>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <f>256*2</f>
         <v>512</v>
       </c>
-      <c r="B39" s="15" t="n">
+      <c r="B39" s="15">
         <v>3236</v>
       </c>
-      <c r="C39" s="15" t="n">
+      <c r="C39" s="15">
         <v>3241</v>
       </c>
-      <c r="D39" s="15" t="n">
+      <c r="D39" s="15">
         <v>3240</v>
       </c>
-      <c r="E39" s="15" t="n">
+      <c r="E39" s="15">
         <v>3202</v>
       </c>
-      <c r="F39" s="15" t="n">
+      <c r="F39" s="15">
         <v>3231</v>
       </c>
-      <c r="G39" s="14" t="n">
-        <f aca="false">AVERAGE(B39:F39)/1000000/A39</f>
-        <v>6.30859375E-006</v>
-      </c>
-      <c r="H39" s="9" t="n">
-        <f aca="false">STDEV(B39:F39)/1000000</f>
-        <v>1.6140012391569E-005</v>
+      <c r="G39" s="14">
+        <f t="shared" si="5"/>
+        <v>6.3085937499999996E-6</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6140012391568973E-5</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="N39" s="0" t="n">
-        <v>49688</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <f aca="false">A39*2</f>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <f t="shared" ref="A40:A45" si="7">A39*2</f>
         <v>1024</v>
       </c>
-      <c r="B40" s="15" t="n">
+      <c r="B40" s="15">
         <v>3453</v>
       </c>
-      <c r="C40" s="15" t="n">
+      <c r="C40" s="15">
         <v>3453</v>
       </c>
-      <c r="D40" s="15" t="n">
+      <c r="D40" s="15">
         <v>3457</v>
       </c>
-      <c r="E40" s="15" t="n">
+      <c r="E40" s="15">
         <v>3419</v>
       </c>
-      <c r="F40" s="15" t="n">
+      <c r="F40" s="15">
         <v>3453</v>
       </c>
-      <c r="G40" s="14" t="n">
-        <f aca="false">AVERAGE(B40:F40)/1000000/A40</f>
-        <v>3.3662109375E-006</v>
-      </c>
-      <c r="H40" s="9" t="n">
-        <f aca="false">STDEV(B40:F40)/1000000</f>
-        <v>1.57480157480236E-005</v>
+      <c r="G40" s="14">
+        <f t="shared" si="5"/>
+        <v>3.3662109375E-6</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="6"/>
+        <v>1.5748015748023622E-5</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <f aca="false">A40*2</f>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <f t="shared" si="7"/>
         <v>2048</v>
       </c>
-      <c r="B41" s="15" t="n">
+      <c r="B41" s="15">
         <v>3996</v>
       </c>
-      <c r="C41" s="15" t="n">
+      <c r="C41" s="15">
         <v>4032</v>
       </c>
-      <c r="D41" s="15" t="n">
+      <c r="D41" s="15">
         <v>4001</v>
       </c>
-      <c r="E41" s="15" t="n">
+      <c r="E41" s="15">
         <v>4004</v>
       </c>
-      <c r="F41" s="15" t="n">
+      <c r="F41" s="15">
         <v>4000</v>
       </c>
-      <c r="G41" s="14" t="n">
-        <f aca="false">AVERAGE(B41:F41)/1000000/A41</f>
-        <v>1.95634765625E-006</v>
-      </c>
-      <c r="H41" s="9" t="n">
-        <f aca="false">STDEV(B41:F41)/1000000</f>
-        <v>1.44844744467999E-005</v>
+      <c r="G41" s="14">
+        <f t="shared" si="5"/>
+        <v>1.95634765625E-6</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="6"/>
+        <v>1.4484474446799926E-5</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <f aca="false">A41*2</f>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <f t="shared" si="7"/>
         <v>4096</v>
       </c>
-      <c r="B42" s="15" t="n">
+      <c r="B42" s="15">
         <v>6652</v>
       </c>
-      <c r="C42" s="15" t="n">
+      <c r="C42" s="15">
         <v>7018</v>
       </c>
-      <c r="D42" s="15" t="n">
+      <c r="D42" s="15">
         <v>6667</v>
       </c>
-      <c r="E42" s="15" t="n">
+      <c r="E42" s="15">
         <v>6655</v>
       </c>
-      <c r="F42" s="15" t="n">
+      <c r="F42" s="15">
         <v>6689</v>
       </c>
-      <c r="G42" s="14" t="n">
-        <f aca="false">AVERAGE(B42:F42)/1000000/A42</f>
-        <v>1.644580078125E-006</v>
-      </c>
-      <c r="H42" s="9" t="n">
-        <f aca="false">STDEV(B42:F42)/1000000</f>
-        <v>0.000158201453849198</v>
+      <c r="G42" s="14">
+        <f t="shared" si="5"/>
+        <v>1.6445800781249999E-6</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="6"/>
+        <v>1.5820145384919823E-4</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <f aca="false">A42*2</f>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <f t="shared" si="7"/>
         <v>8192</v>
       </c>
-      <c r="B43" s="15" t="n">
+      <c r="B43" s="15">
         <v>12100</v>
       </c>
-      <c r="C43" s="15" t="n">
+      <c r="C43" s="15">
         <v>12101</v>
       </c>
-      <c r="D43" s="15" t="n">
+      <c r="D43" s="15">
         <v>12109</v>
       </c>
-      <c r="E43" s="15" t="n">
+      <c r="E43" s="15">
         <v>12296</v>
       </c>
-      <c r="F43" s="15" t="n">
+      <c r="F43" s="15">
         <v>12076</v>
       </c>
-      <c r="G43" s="14" t="n">
-        <f aca="false">AVERAGE(B43:F43)/1000000/A43</f>
-        <v>1.481494140625E-006</v>
-      </c>
-      <c r="H43" s="9" t="n">
-        <f aca="false">STDEV(B43:F43)/1000000</f>
-        <v>9.00683074116528E-005</v>
+      <c r="G43" s="14">
+        <f t="shared" si="5"/>
+        <v>1.481494140625E-6</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="6"/>
+        <v>9.0068307411652848E-5</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <f aca="false">A43*2</f>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <f t="shared" si="7"/>
         <v>16384</v>
       </c>
-      <c r="B44" s="15" t="n">
+      <c r="B44" s="15">
         <v>24123</v>
       </c>
-      <c r="C44" s="15" t="n">
+      <c r="C44" s="15">
         <v>25187</v>
       </c>
-      <c r="D44" s="15" t="n">
+      <c r="D44" s="15">
         <v>24114</v>
       </c>
-      <c r="E44" s="15" t="n">
+      <c r="E44" s="15">
         <v>24136</v>
       </c>
-      <c r="F44" s="15" t="n">
+      <c r="F44" s="15">
         <v>24093</v>
       </c>
-      <c r="G44" s="14" t="n">
-        <f aca="false">AVERAGE(B44:F44)/1000000/A44</f>
-        <v>1.48502197265625E-006</v>
-      </c>
-      <c r="H44" s="9" t="n">
-        <f aca="false">STDEV(B44:F44)/1000000</f>
-        <v>0.000478998225466442</v>
+      <c r="G44" s="14">
+        <f t="shared" si="5"/>
+        <v>1.4850219726562498E-6</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="6"/>
+        <v>4.7899822546644159E-4</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <f aca="false">A44*2</f>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <f t="shared" si="7"/>
         <v>32768</v>
       </c>
-      <c r="B45" s="15" t="n">
+      <c r="B45" s="15">
         <v>48084</v>
       </c>
-      <c r="C45" s="15" t="n">
+      <c r="C45" s="15">
         <v>48072</v>
       </c>
-      <c r="D45" s="15" t="n">
+      <c r="D45" s="15">
         <v>48087</v>
       </c>
-      <c r="E45" s="15" t="n">
+      <c r="E45" s="15">
         <v>48063</v>
       </c>
-      <c r="F45" s="15" t="n">
+      <c r="F45" s="15">
         <v>49688</v>
       </c>
-      <c r="G45" s="14" t="n">
-        <f aca="false">AVERAGE(B45:F45)/1000000/A45</f>
-        <v>1.47701416015625E-006</v>
-      </c>
-      <c r="H45" s="9" t="n">
-        <f aca="false">STDEV(B45:F45)/1000000</f>
-        <v>0.000720748707941957</v>
+      <c r="G45" s="14">
+        <f t="shared" si="5"/>
+        <v>1.4770141601562502E-6</v>
+      </c>
+      <c r="H45" s="9">
+        <f t="shared" si="6"/>
+        <v>7.2074870794195669E-4</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:12">
       <c r="A50" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B50" s="5"/>
-      <c r="G50" s="0"/>
-      <c r="H50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50"/>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>23</v>
       </c>
-      <c r="G51" s="0"/>
-      <c r="H51" s="0"/>
+      <c r="G51"/>
+      <c r="H51"/>
       <c r="I51" s="7" t="s">
         <v>17</v>
       </c>
@@ -2267,52 +3101,52 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:12">
       <c r="A52" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="6" t="n">
-        <f aca="false">B4</f>
+      <c r="B52" s="6">
+        <f>B4</f>
         <v>128</v>
       </c>
-      <c r="G52" s="0"/>
-      <c r="H52" s="0"/>
+      <c r="G52"/>
+      <c r="H52"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
         <v>19</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="0"/>
-      <c r="H53" s="0"/>
+      <c r="G53"/>
+      <c r="H53"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -2326,31 +3160,31 @@
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    <row r="55" spans="1:12">
+      <c r="A55">
         <v>256</v>
       </c>
-      <c r="B55" s="15" t="n">
+      <c r="B55" s="15">
         <v>6000000</v>
       </c>
-      <c r="C55" s="15" t="n">
+      <c r="C55" s="15">
         <v>6000000</v>
       </c>
-      <c r="D55" s="15" t="n">
+      <c r="D55" s="15">
         <v>6000000</v>
       </c>
-      <c r="E55" s="15" t="n">
+      <c r="E55" s="15">
         <v>6000000</v>
       </c>
-      <c r="F55" s="15" t="n">
+      <c r="F55" s="15">
         <v>6000000</v>
       </c>
-      <c r="G55" s="1" t="n">
-        <f aca="false">AVERAGE(B55:F55)/1000000</f>
+      <c r="G55" s="1">
+        <f t="shared" ref="G55:G62" si="8">AVERAGE(B55:F55)/1000000</f>
         <v>6</v>
       </c>
-      <c r="H55" s="1" t="n">
-        <f aca="false">STDEV(B55:F55)/1000000</f>
+      <c r="H55" s="1">
+        <f t="shared" ref="H55:H62" si="9">STDEV(B55:F55)/1000000</f>
         <v>0</v>
       </c>
       <c r="I55" s="7"/>
@@ -2358,32 +3192,32 @@
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <f aca="false">256*2</f>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <f>256*2</f>
         <v>512</v>
       </c>
-      <c r="B56" s="15" t="n">
+      <c r="B56" s="15">
         <v>5000000</v>
       </c>
-      <c r="C56" s="15" t="n">
+      <c r="C56" s="15">
         <v>5000000</v>
       </c>
-      <c r="D56" s="15" t="n">
+      <c r="D56" s="15">
         <v>5000000</v>
       </c>
-      <c r="E56" s="15" t="n">
+      <c r="E56" s="15">
         <v>5000000</v>
       </c>
-      <c r="F56" s="15" t="n">
+      <c r="F56" s="15">
         <v>5000000</v>
       </c>
-      <c r="G56" s="1" t="n">
-        <f aca="false">AVERAGE(B56:F56)/1000000</f>
+      <c r="G56" s="1">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="H56" s="1" t="n">
-        <f aca="false">STDEV(B56:F56)/1000000</f>
+      <c r="H56" s="1">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I56" s="7"/>
@@ -2391,32 +3225,32 @@
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <f aca="false">A56*2</f>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <f t="shared" ref="A57:A62" si="10">A56*2</f>
         <v>1024</v>
       </c>
-      <c r="B57" s="15" t="n">
+      <c r="B57" s="15">
         <v>4000000</v>
       </c>
-      <c r="C57" s="15" t="n">
+      <c r="C57" s="15">
         <v>4000000</v>
       </c>
-      <c r="D57" s="15" t="n">
+      <c r="D57" s="15">
         <v>4000000</v>
       </c>
-      <c r="E57" s="15" t="n">
+      <c r="E57" s="15">
         <v>4000000</v>
       </c>
-      <c r="F57" s="15" t="n">
+      <c r="F57" s="15">
         <v>4000000</v>
       </c>
-      <c r="G57" s="1" t="n">
-        <f aca="false">AVERAGE(B57:F57)/1000000</f>
+      <c r="G57" s="1">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="H57" s="1" t="n">
-        <f aca="false">STDEV(B57:F57)/1000000</f>
+      <c r="H57" s="1">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I57" s="7"/>
@@ -2424,32 +3258,32 @@
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <f aca="false">A57*2</f>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <f t="shared" si="10"/>
         <v>2048</v>
       </c>
-      <c r="B58" s="15" t="n">
+      <c r="B58" s="15">
         <v>4000000</v>
       </c>
-      <c r="C58" s="15" t="n">
+      <c r="C58" s="15">
         <v>4000000</v>
       </c>
-      <c r="D58" s="15" t="n">
+      <c r="D58" s="15">
         <v>4000000</v>
       </c>
-      <c r="E58" s="15" t="n">
+      <c r="E58" s="15">
         <v>4000000</v>
       </c>
-      <c r="F58" s="15" t="n">
+      <c r="F58" s="15">
         <v>4000000</v>
       </c>
-      <c r="G58" s="1" t="n">
-        <f aca="false">AVERAGE(B58:F58)/1000000</f>
+      <c r="G58" s="1">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="H58" s="1" t="n">
-        <f aca="false">STDEV(B58:F58)/1000000</f>
+      <c r="H58" s="1">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I58" s="7"/>
@@ -2457,32 +3291,32 @@
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <f aca="false">A58*2</f>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <f t="shared" si="10"/>
         <v>4096</v>
       </c>
-      <c r="B59" s="15" t="n">
+      <c r="B59" s="15">
         <v>4000000</v>
       </c>
-      <c r="C59" s="15" t="n">
+      <c r="C59" s="15">
         <v>4000000</v>
       </c>
-      <c r="D59" s="15" t="n">
+      <c r="D59" s="15">
         <v>4000000</v>
       </c>
-      <c r="E59" s="15" t="n">
+      <c r="E59" s="15">
         <v>4000000</v>
       </c>
-      <c r="F59" s="15" t="n">
+      <c r="F59" s="15">
         <v>4000000</v>
       </c>
-      <c r="G59" s="1" t="n">
-        <f aca="false">AVERAGE(B59:F59)/1000000</f>
+      <c r="G59" s="1">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="H59" s="1" t="n">
-        <f aca="false">STDEV(B59:F59)/1000000</f>
+      <c r="H59" s="1">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I59" s="7"/>
@@ -2490,32 +3324,32 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <f aca="false">A59*2</f>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <f t="shared" si="10"/>
         <v>8192</v>
       </c>
-      <c r="B60" s="15" t="n">
+      <c r="B60" s="15">
         <v>4000000</v>
       </c>
-      <c r="C60" s="15" t="n">
+      <c r="C60" s="15">
         <v>4000000</v>
       </c>
-      <c r="D60" s="15" t="n">
+      <c r="D60" s="15">
         <v>4000000</v>
       </c>
-      <c r="E60" s="15" t="n">
+      <c r="E60" s="15">
         <v>4000000</v>
       </c>
-      <c r="F60" s="15" t="n">
+      <c r="F60" s="15">
         <v>4000000</v>
       </c>
-      <c r="G60" s="1" t="n">
-        <f aca="false">AVERAGE(B60:F60)/1000000</f>
+      <c r="G60" s="1">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="H60" s="1" t="n">
-        <f aca="false">STDEV(B60:F60)/1000000</f>
+      <c r="H60" s="1">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I60" s="7"/>
@@ -2523,32 +3357,32 @@
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <f aca="false">A60*2</f>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <f t="shared" si="10"/>
         <v>16384</v>
       </c>
-      <c r="B61" s="15" t="n">
+      <c r="B61" s="15">
         <v>4000000</v>
       </c>
-      <c r="C61" s="15" t="n">
+      <c r="C61" s="15">
         <v>4000000</v>
       </c>
-      <c r="D61" s="15" t="n">
+      <c r="D61" s="15">
         <v>4000000</v>
       </c>
-      <c r="E61" s="15" t="n">
+      <c r="E61" s="15">
         <v>4000000</v>
       </c>
-      <c r="F61" s="15" t="n">
+      <c r="F61" s="15">
         <v>4000000</v>
       </c>
-      <c r="G61" s="1" t="n">
-        <f aca="false">AVERAGE(B61:F61)/1000000</f>
+      <c r="G61" s="1">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="H61" s="1" t="n">
-        <f aca="false">STDEV(B61:F61)/1000000</f>
+      <c r="H61" s="1">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I61" s="7"/>
@@ -2556,32 +3390,32 @@
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <f aca="false">A61*2</f>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <f t="shared" si="10"/>
         <v>32768</v>
       </c>
-      <c r="B62" s="15" t="n">
+      <c r="B62" s="15">
         <v>4000000</v>
       </c>
-      <c r="C62" s="15" t="n">
+      <c r="C62" s="15">
         <v>4000000</v>
       </c>
-      <c r="D62" s="15" t="n">
+      <c r="D62" s="15">
         <v>4000000</v>
       </c>
-      <c r="E62" s="15" t="n">
+      <c r="E62" s="15">
         <v>4000000</v>
       </c>
-      <c r="F62" s="15" t="n">
+      <c r="F62" s="15">
         <v>4000000</v>
       </c>
-      <c r="G62" s="1" t="n">
-        <f aca="false">AVERAGE(B62:F62)/1000000</f>
+      <c r="G62" s="1">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="H62" s="1" t="n">
-        <f aca="false">STDEV(B62:F62)/1000000</f>
+      <c r="H62" s="1">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I62" s="7"/>
@@ -2590,10 +3424,9 @@
       <c r="L62" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2602,25 +3435,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.2040816326531"/>
+    <col min="1" max="1025" width="11.140625"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
